--- a/PRODUTOS/Saudaveis/Saudaveis - Naturais.xlsx
+++ b/PRODUTOS/Saudaveis/Saudaveis - Naturais.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aveia Em Flocos Kodilar 500g</t>
+          <t>Proteina De Soja Camil 400g Carne</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98f1e513-4d05-4cdd-9875-c99fdcacdd4a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2cf55e6c-d615-4d34-ae4e-ec780f694a37.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896006791072</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Farinha De Aveia Natural Life 500gr</t>
+          <t>Barra De Fruta Sabor Cereal E Castanha Nutry 3 Unidades De 66g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5eb80d7d-c3d2-40e2-aa6c-01413d9f9f39.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51db5af6-1be2-4a59-be1f-88d67bc0ac70.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891331001100</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Creme De Leite Vegetal Not Creme 200g</t>
+          <t>Grain Flakes Jasmine 250g Maltado</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/554da491-4f62-4aa7-a83c-345532154449.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff2c34c6-4f79-429b-96f8-ba3888a487a7.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896283000430</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Granola Kodilar 300g Mix Cereais</t>
+          <t>Proteina De Soja Camil 400gr Fgo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ca68fa4-ee55-4ad6-a9d9-569a93a0735a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6586a1c-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896006791096</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Semente De Chia Kodilar 100g</t>
+          <t>Grain Flakes Jasmine 250g Trad</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db789092-1654-476a-8dc3-e894dc04447c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfe56f54-d8fa-449b-82bb-beadc96b62ef.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896283000157</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Granola Kodilar 300g Maça/mel</t>
+          <t>Chia Em Graos Jasmine Pouch 150g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23641c25-c7e4-42ac-90c5-58c65ea826e5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/658818cb-941a-49f2-8b22-6a3bd5c6b902.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896283005602</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Proteina De Soja Camil 400g Carne</t>
+          <t>Oleo De Coco Kodilar 200ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2cf55e6c-d615-4d34-ae4e-ec780f694a37.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa7f2fdb-e91e-4ac2-9874-4c42f076bfd2.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896552907514</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Oleo De Coco Kodilar 200ml</t>
+          <t>Granola Caseira Kodilar 1kg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa7f2fdb-e91e-4ac2-9874-4c42f076bfd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f63f5a0-0935-4846-b5d1-954805d8398e.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896256041538</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Granola Kodilar 1kg Tradicional</t>
+          <t>Granola Kodilar 300g Mix Cereais</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 38,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de17d3bd-b117-4271-8999-db2a8f4fef08.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ca68fa4-ee55-4ad6-a9d9-569a93a0735a.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896256040326</t>
         </is>
       </c>
     </row>
@@ -709,12 +759,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/012065df-8e31-484a-8a99-2d00805f40cc.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896256040487</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Proteina De Soja Camil 400gr Fgo</t>
+          <t>Granola Kodilar 300g Maça/mel</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6586a1c-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23641c25-c7e4-42ac-90c5-58c65ea826e5.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896256041897</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Semente De Linhaça Natural Life 200gr</t>
+          <t>Semente De Chia Kodilar 100g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 6,29</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fdfac444-bf75-469f-bc43-cc4e1d672220.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db789092-1654-476a-8dc3-e894dc04447c.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896256041590</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Barra De Fruta Sabor Coco Nutry 3 Unidades De 57g</t>
+          <t>Aveia Em Flocos Kodilar 500g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9626d6e8-b92a-41b9-a830-29d5aa058b21.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98f1e513-4d05-4cdd-9875-c99fdcacdd4a.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896256040227</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chia Em Graos Jasmine Pouch 150g</t>
+          <t>Granola Kodilar 1kg Ban E Canela</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/658818cb-941a-49f2-8b22-6a3bd5c6b902.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f084a1c7-c463-4e2c-b24b-da944b6b9b80.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896256041880</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Semente Linhaça Natural Life 150g Dour</t>
+          <t>Barra De Cereal Nutry 66g Aveia/banana/mel</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb0e24bf-6da8-42fb-9689-1d1ef96d9704.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11c98d00-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891331001100</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Barra De Fruta Sabor Cereal E Castanha Nutry 3 Unidades De 66g</t>
+          <t>Granola Mãe Terra 250g Tradicional Com Castanhas</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51db5af6-1be2-4a59-be1f-88d67bc0ac70.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb6e0ee7-2019-4609-bb6f-378c96da6578.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896496972005</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Barra De Cereais Mx Nuts Agtal 60g Orig</t>
+          <t>Quinoa Real Organ Graos Vitalin 200g Ver</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5913761b-a886-4a50-b138-7f2685f02510.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66a9f85c-8838-4683-98eb-e9da025541f0.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7898568901012</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Granola Caseira Kodilar 1kg</t>
+          <t>Chia Em Graos Brancas Vitalin 120g Integ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 38,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f63f5a0-0935-4846-b5d1-954805d8398e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c9de814-990c-4b53-9780-5d19f9e9982e.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898568901043</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Barra De Cereais Mx Nuts Agtal 60g Coco</t>
+          <t>Farinha De Chia Vitalin 150gr Integral</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b13c54f5-c544-454f-aa7f-f62c162d0e2f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1779b111-9d9d-4ead-813a-66003e03797f.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898568900930</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chia Em Graos Brancas Vitalin 120g Integ</t>
+          <t>Granola Integral Vitalin 200gr Cacau/coc</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c9de814-990c-4b53-9780-5d19f9e9982e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a182c85d-a0e4-4672-9a0a-91a4b1043861.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7898568901128</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Quinoa Real Organ Graos Vitalin 200g Ver</t>
+          <t>Granola Integral Vitali 200gr Trad</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66a9f85c-8838-4683-98eb-e9da025541f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/763243e7-b05c-4439-8526-5b5fa72b3ac5.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7898568901128</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gergelim Bco Em Graos Integ Vitalin 120g</t>
+          <t>Quinoa Em Flocos Organica Vitalin 120gr</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62b7c133-60d9-4c6a-9d13-c4f7137e0f82.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53b20e34-f631-4cef-be15-bbac6ac5006b.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7898568900886</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Açucar Organico Mascavo Native 250g</t>
+          <t>Quinoa Em Flocos Organica Vitalin 120gr</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff0790ec-cb16-497e-b2c3-cd927099c44b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f12afcc9-bffe-431d-80e2-03afecbfd00b.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7898568900886</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Barra De Cereal Nutry 22g Frutas Vermelhas</t>
+          <t>Gergelim Bco Em Graos Integ Vitalin 120g</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ad63dac-34db-4495-8d66-8d9977ab8b9a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62b7c133-60d9-4c6a-9d13-c4f7137e0f82.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7898568901098</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Barra De Cereais Mx Nuts Agtal 60g Granb</t>
+          <t>Hamb Vegetal Sora 110gr Multigraos</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5d3d4c5-3400-4377-91fd-8e06427c87bf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ce55102-bba8-4281-a6bd-33801ed8b6c7.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7898614670046</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Quinoa Tricolor Groa Svitalin 200g Sem Gluten</t>
+          <t>Proteina De Soja Sora 125g File Carne Vermelha</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cebce26-dbc7-4a90-937e-9ffc2238a60c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09cb816a-43e3-44bb-b7f4-034ccecf191d.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7898614670114</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Gelatina Com Colágeno Dr. Oetker 15g Abacaxi</t>
+          <t>Granola Low Carb Tia Sônia 180g Original</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 37,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55c688ed-306d-43fa-bda0-a6eecc5ea7d4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f68ab741-5cd2-4f36-8ed6-2eae861966c6.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7898115752500</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Barra De Cereal Nutry 66g Aveia/banana/mel</t>
+          <t>Granola Tia Sônia 200g Castanha Do Para</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11c98d00-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20028f39-a21b-4c43-b3c7-cbd8e6ce58cc.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898115750636</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Farinha De Chia Natural Life 100gr</t>
+          <t>Granola Tia Sônia 200g Chocolate</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bd6effc-aedb-41d3-894b-6dba7f1c5127.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aff2a79-009a-4ebb-ba69-1a4d6f0f60be.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898115750643</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Farinha De Linhaça Dourada Jasmine 200g</t>
+          <t>Granola Tia Sônia 200g Tradicional</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eea8b0a4-43d2-4ba0-ac1e-892787e6d688.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb182e64-8aa6-4023-9dfe-d8c7ef715745.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7898115750025</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Granola Mãe Terra 250g Tradicional Com Castanhas</t>
+          <t>Quinoa Real Organica Graos Vitalin 200g Mista</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb6e0ee7-2019-4609-bb6f-378c96da6578.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7898568901012</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Granola Mãe Terra 800g Tradicional Com Castanhas</t>
+          <t>Creme De Leite Vegetal Not Creme 200g</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2bdd5de-32a9-42ac-b6bb-e2a807e7acab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/554da491-4f62-4aa7-a83c-345532154449.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7898686950565</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Proteina Soja Texturizada Kodilar 400g</t>
+          <t>Maionese Not Mayo Pote 450g Original</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e99d806a-e8d8-4084-969c-7a6560d955ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13717c76-c50d-4cf9-bd2a-fe02f773193b.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7898686950527</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Granola Mãe Terra 250g Frutas E Mel Vegano</t>
+          <t>Granola Salgada Tia Sônia 200g Francesa</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 38,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5f970dc-ef04-4e4b-b7f8-3018662ae8e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22d73fee-22cd-4d8b-8a55-8788c6055444.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7898115758267</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Granola Mae Terra 250g Cacau</t>
+          <t>Granola Salgada Tia Sônia 200g Nordestina</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 38,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faa72c45-3c9e-49b9-babe-b61d812edb34.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce5a543c-f1d2-470b-aa80-fb2ead1b1fa6.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7898115758274</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Grain Flakes Jasmine 250g Trad</t>
+          <t>Granola Mae Terra 250g Cacau</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfe56f54-d8fa-449b-82bb-beadc96b62ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faa72c45-3c9e-49b9-babe-b61d812edb34.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896496972203</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Quinoa Em Flocos Organica Vitalin 120gr</t>
+          <t>Granola Mãe Terra 250g Frutas E Mel Vegano</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f12afcc9-bffe-431d-80e2-03afecbfd00b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5f970dc-ef04-4e4b-b7f8-3018662ae8e6.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896496972111</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1650,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Granola Mãe Terra 800g Cacau</t>
+          <t>Granola Mãe Terra 800g Banana E Cacau</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1470,7 +1660,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cce6d0f6-b94b-42eb-9b47-8b3392fd74e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a242fc79-69e6-4821-9cad-bb9c0ec39017.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896496995219</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Granola Tia Sônia 200g Tradicional</t>
+          <t>Granola Mãe Terra 800g Cacau</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb182e64-8aa6-4023-9dfe-d8c7ef715745.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cce6d0f6-b94b-42eb-9b47-8b3392fd74e7.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896496995219</t>
         </is>
       </c>
     </row>
@@ -1527,6 +1727,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c41b38c-190e-40b7-ae08-90bc9e28aed0.jpg</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896496972111</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Biscoito Rosquinha Jasmine 120g Maç/banana</t>
+          <t>Granola Mãe Terra 800g Tradicional Com Castanhas</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd9e3ac1-eabe-4bd8-a2dd-b849eedfe0f1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2bdd5de-32a9-42ac-b6bb-e2a807e7acab.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891150075443</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Proteina De Soja Sora 125g File Carne Vermelha</t>
+          <t>Whey Granola Vitalin 180g Zero Caramelo E Amendoa</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09cb816a-43e3-44bb-b7f4-034ccecf191d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a544217-e8cc-40a0-8b5b-81ebc57f4d72.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7898568901821</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Maionese Not Mayo Pote 450g Original</t>
+          <t>Whey Granola Vitalin 180g Zero Chocolate</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13717c76-c50d-4cf9-bd2a-fe02f773193b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4589bc58-0e96-4ee6-a490-581334209d43.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7898568901838</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Granola Mãe Terra 800g Banana E Cacau</t>
+          <t>Creme De Amendoim Dacolonia 200g Pacoca</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a242fc79-69e6-4821-9cad-bb9c0ec39017.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4087a5cb-356f-4182-8dc0-7de21c4bc95f.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896181712480</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Creme De Amendoim Dacolonia 200g Pacoca</t>
+          <t>Barra De Cereal Nutry 22g Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4087a5cb-356f-4182-8dc0-7de21c4bc95f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ad63dac-34db-4495-8d66-8d9977ab8b9a.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7891331014520</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Granola Kodilar 1kg Ban E Canela</t>
+          <t>Biscoito 7 Grãos Da Magrinha 120g Morango E Cacau</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 38,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f084a1c7-c463-4e2c-b24b-da944b6b9b80.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/274bb06d-6a59-40dc-8313-c9253e938928.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896839172888</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Granola Integral Vitalin 200gr Cacau/coc</t>
+          <t>Atum Vegetal Sora 150g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a182c85d-a0e4-4672-9a0a-91a4b1043861.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7898614670824</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Granola Tia Sônia 200g Chocolate</t>
+          <t>Creme Vegetal Sora 200g Maionese</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 20,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aff2a79-009a-4ebb-ba69-1a4d6f0f60be.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e94e2a73-40f4-47b2-9a21-406a1ac833d4.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7898614670787</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Granola Integral Vitali 200gr Trad</t>
+          <t>Molho Vegetal Sora 200g Bolonhesa</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/763243e7-b05c-4439-8526-5b5fa72b3ac5.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7898614670817</t>
         </is>
       </c>
     </row>
@@ -1784,692 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Quinoa Em Flocos Organica Vitalin 120gr</t>
+          <t>Creme Vegetal Sora 200g Manteiga</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53b20e34-f631-4cef-be15-bbac6ac5006b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Proteína Vegetal Moída Sora 250g</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>R$ 15,49</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea13e33c-e836-47ec-bf41-acd2152969b3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Granola Tia Sônia 200g Castanha Do Para</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20028f39-a21b-4c43-b3c7-cbd8e6ce58cc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Quinoa Real Organica Graos Vitalin 200g Mista</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Farinha De Chia Vitalin 150gr Integral</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1779b111-9d9d-4ead-813a-66003e03797f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Gergelim Preto Natural Life 200gr</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>R$ 13,29</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfbf9b51-c2de-49cd-a90f-3ffdfbc0225d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Flocos De Amaranto Organico Vitalin 150g</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c6d0bf8-5417-4e6c-9cb2-84ffa18df43e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Hamb Vegetal Sora 110gr Multigraos</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ce55102-bba8-4281-a6bd-33801ed8b6c7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Maionese Not Mayo 350g Azeitona Preta</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1990a909-c28c-4ddd-9180-9439c53fa515.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Granola Salgada Tia Sônia 200g Nordestina</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>R$ 42,99</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce5a543c-f1d2-470b-aa80-fb2ead1b1fa6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Granola Low Carb Tia Sônia 180g Original</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>R$ 37,99</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f68ab741-5cd2-4f36-8ed6-2eae861966c6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Whey Granola Vitalin 180g Zero Caramelo E Amendoa</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>R$ 31,99</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a544217-e8cc-40a0-8b5b-81ebc57f4d72.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Biscoito 7 Grãos Da Magrinha 120g Morango E Cacau</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>R$ 3,49</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/274bb06d-6a59-40dc-8313-c9253e938928.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Grain Flakes Jasmine 250g Maltado</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff2c34c6-4f79-429b-96f8-ba3888a487a7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Biscoito Funional Kodilar 140g Mel E Choco</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb230cc1-40ce-4667-8d82-c90b958edbe7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Maionese Not Mayo 350g Alho</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3623bdc-51b0-4749-bb9e-95802b0f7fd9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Farinha De Soja Natural Life 500gr</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a761f321-5225-4a24-a68a-14b2b0f5929b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Mel Free Mrs Taste 280g</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4ca7dad-f85e-4f62-abd1-dbe13eebc1b5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Coquinho Crocante Tia Sônia 120g</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>R$ 27,49</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00a6bee6-6f63-4cd5-8205-941386289069.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Granola Salgada Tia Sônia 200g Francesa</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>R$ 42,99</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22d73fee-22cd-4d8b-8a55-8788c6055444.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Tapioca Crocante Tia Sônia 180g</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/67ddaffd-5d87-42ce-a217-4bc306290ea0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Whey Granola Vitalin 180g Zero Chocolate</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>R$ 31,99</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4589bc58-0e96-4ee6-a490-581334209d43.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Creme Vegetal Sora 200g Manteiga</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cadf490e-8952-4d8f-89f3-c85d4d7e3421.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Atum Vegetal Sora 150g</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Creme Vegetal Sora 200g Maionese</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>R$ 7,49</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e94e2a73-40f4-47b2-9a21-406a1ac833d4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Naturais</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Molho Vegetal Sora 200g Bolonhesa</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7898614670770</t>
         </is>
       </c>
     </row>
